--- a/public/Product_details.xlsx
+++ b/public/Product_details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>P_ID</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Black Jeans</t>
   </si>
   <si>
-    <t>M</t>
+    <t>S,M,L,XL,XXL</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/dxzwsu0x8/image/upload/v1744963399/jeans_umhrxf.png</t>
@@ -47,9 +47,6 @@
     <t>Blue Denim Jacket</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -65,9 +62,6 @@
     <t>White T-Shirt</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t>Graphic Hoodie</t>
-  </si>
-  <si>
-    <t>XXL</t>
   </si>
   <si>
     <r>
@@ -511,55 +502,55 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>699.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>799.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>299.0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -573,61 +564,61 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>799.0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>659.0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>600.0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -641,53 +632,53 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>499.0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>999.0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>599.0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
